--- a/medicine/Psychotrope/Bodegas_Torres/Bodegas_Torres.xlsx
+++ b/medicine/Psychotrope/Bodegas_Torres/Bodegas_Torres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bodegas Torres est une société fondée en 1870 en Espagne par Jaime Torres située à Pacs del Penedès, à proximité de Vilafranca del Penedès, où se trouve son siège social.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille est membre fondateur des Primum Familiæ Vini.
 </t>
@@ -543,7 +557,9 @@
           <t>Domaines en Espagne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cuvée San Valentin des Bodegas Torres.
@@ -576,7 +592,9 @@
           <t>Domaines à l'étranger</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La société est également implantée dans la vallée centrale du Chili où ses vignobles sont regroupés sous la dénomination « Chili Miguel Torres » et en Californie où, en 1986, Marimar Torres a fondé Marimar Estate.
 </t>
